--- a/Data/MichelsonData.xlsx
+++ b/Data/MichelsonData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\passa\Documents\Scuola\Git\InterferometroMichelson\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoc_000\Desktop\Università\Laboratorio di fisica\InterferometroMichelson\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10988" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10992"/>
   </bookViews>
   <sheets>
     <sheet name="Lunghezza d'onda" sheetId="1" r:id="rId1"/>
@@ -473,18 +473,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -507,7 +508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1.0500000000000001E-2</v>
       </c>
@@ -542,7 +543,7 @@
         <v>5.3344391431067342</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2</f>
         <v>1.0500000000000001E-2</v>
@@ -578,7 +579,7 @@
         <v>6.8290018340633623</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A3</f>
         <v>1.0500000000000001E-2</v>
@@ -614,7 +615,7 @@
         <v>6.4940998263908147</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A6" si="2">A4</f>
         <v>1.0500000000000001E-2</v>
@@ -650,7 +651,7 @@
         <v>1.6155272967129866</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="2"/>
         <v>1.0500000000000001E-2</v>
@@ -686,7 +687,11 @@
         <v>6.4940998263908147</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>AVERAGE(D2:D6)</f>
+        <v>5.680000000000012E-5</v>
+      </c>
       <c r="H7">
         <f>SUM(H2:H6)</f>
         <v>4.2306238767035043E-2</v>
@@ -696,13 +701,17 @@
         <v>26.767167926664715</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>_xlfn.STDEV.S(D2:D6)</f>
+        <v>1.4184498581197737E-5</v>
+      </c>
       <c r="I8">
         <f>I7/H7</f>
         <v>632.70025194302195</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -722,7 +731,7 @@
         <v>9.8550995073891627</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -745,7 +754,7 @@
         <v>630.72636847290812</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -774,7 +783,7 @@
         <v>57.90804057847631</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E23">
         <f>H20</f>
         <v>9.6646628019323675</v>
@@ -796,7 +805,7 @@
         <v>-1.5855072676512032E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E24">
         <f>G4</f>
         <v>9.8550995073891627</v>
@@ -829,16 +838,16 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -846,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>42</v>
       </c>
@@ -855,7 +864,7 @@
         <v>1.0002657341058161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>41</v>
       </c>
@@ -864,7 +873,7 @@
         <v>1.0002594071032966</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>42.5</v>
       </c>
@@ -873,7 +882,7 @@
         <v>1.0002688976070757</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>42</v>
       </c>
@@ -882,7 +891,7 @@
         <v>1.0002657341058161</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>AVERAGE(B2:B5)</f>
         <v>1.0002649432305011</v>
@@ -892,12 +901,12 @@
         <v>3.9806517910835174E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -905,7 +914,7 @@
         <v>1.0002926000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -914,7 +923,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -922,7 +931,7 @@
         <v>6.3270025194302196E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -930,7 +939,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -949,12 +958,15 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -971,7 +983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>15.18</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>6.0000000000002272E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>15.18</v>
       </c>
@@ -1011,7 +1023,7 @@
         <v>6.0000000000002272E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15.18</v>
       </c>
@@ -1031,7 +1043,7 @@
         <v>6.0000000000002272E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15.2</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>7.0000000000000287E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1067,18 +1079,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2.068E-2</v>
       </c>
@@ -1115,7 +1127,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>B2</f>
         <v>1.745E-2</v>
@@ -1136,7 +1148,7 @@
         <v>5.6375728896103907E-10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A2</f>
         <v>2.068E-2</v>
@@ -1156,7 +1168,7 @@
         <v>5.5891817060085829E-10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1.602E-2</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>5.9464809931506873E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2.068E-2</v>
       </c>
@@ -1194,12 +1206,12 @@
         <v>5.6744197712418303E-10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>5.8899999999999999E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1217,7 +1229,7 @@
         <v>5.8960000000000004E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1238,7 @@
         <v>5.8930000000000002E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>

--- a/Data/MichelsonData.xlsx
+++ b/Data/MichelsonData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lunghezza d'onda" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>delta x</t>
   </si>
@@ -105,14 +105,34 @@
   </si>
   <si>
     <t>gradi celsius</t>
+  </si>
+  <si>
+    <t>(delta x)/N1</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>temperatura</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>lamda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -151,12 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -471,21 +493,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="N9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -507,12 +532,18 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>1.021E-2</v>
       </c>
       <c r="C2">
@@ -542,13 +573,29 @@
         <f>H2*F2</f>
         <v>5.3344391431067342</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="K2">
+        <f>D2/E2</f>
+        <v>3.152173913043482E-7</v>
+      </c>
+      <c r="L2">
+        <f>SQRT(($B$22/E2)^2+(D2/(E2^2))^2)</f>
+        <v>5.6983948439776389E-9</v>
+      </c>
+      <c r="N2">
+        <f>L2^-2</f>
+        <v>3.0796043417517456E+16</v>
+      </c>
+      <c r="O2">
+        <f>N2*K2</f>
+        <v>9707448468.5652962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <f>A2</f>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>1.017E-2</v>
       </c>
       <c r="C3">
@@ -578,13 +625,29 @@
         <f t="shared" ref="I3:I6" si="1">H3*F3</f>
         <v>6.8290018340633623</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="2">D3/E3</f>
+        <v>3.1884057971014533E-7</v>
+      </c>
+      <c r="L3">
+        <f>SQRT(($B$22/E3)^2+(D3/(E3^2))^2)</f>
+        <v>5.0705294569767996E-9</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N6" si="3">L3^-2</f>
+        <v>3.8894964537654904E+16</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O6" si="4">N3*K3</f>
+        <v>12401293040.991434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <f>A3</f>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>1.018E-2</v>
       </c>
       <c r="C4">
@@ -614,32 +677,48 @@
         <f t="shared" si="1"/>
         <v>6.4940998263908147</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f t="shared" ref="A5:A6" si="2">A4</f>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>3.15270935960592E-7</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" si="5">SQRT(($B$22/E4)^2+(D4/(E4^2))^2)</f>
+        <v>5.1651268470108771E-9</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>3.7483317095243344E+16</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>11817400463.525028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" ref="A5:A6" si="6">A4</f>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>1.034E-2</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C6" si="3">ABS(B5-A5)</f>
+        <f t="shared" ref="C5:C6" si="7">ABS(B5-A5)</f>
         <v>1.6000000000000042E-4</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D6" si="4">C5/5</f>
+        <f t="shared" ref="D5:D6" si="8">C5/5</f>
         <v>3.2000000000000087E-5</v>
       </c>
       <c r="E5">
         <v>101</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F6" si="5">2*$B$21*D5/E5*1000000000</f>
+        <f t="shared" ref="F5:F6" si="9">2*$B$21*D5/E5*1000000000</f>
         <v>633.84877623762554</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G6" si="6">(2*$B$21*$B$22/E5)*1000000000</f>
+        <f t="shared" ref="G5:G6" si="10">(2*$B$21*$B$22/E5)*1000000000</f>
         <v>19.807774257425741</v>
       </c>
       <c r="H5">
@@ -650,32 +729,48 @@
         <f t="shared" si="1"/>
         <v>1.6155272967129866</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="K5">
         <f t="shared" si="2"/>
+        <v>3.168316831683177E-7</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>1.038605043643618E-8</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>9270414342984406</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>2937160979.9554634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="6"/>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>1.018E-2</v>
       </c>
       <c r="C6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.2000000000000084E-4</v>
       </c>
       <c r="D6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.4000000000000173E-5</v>
       </c>
       <c r="E6">
         <v>203</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>630.72636847290812</v>
       </c>
       <c r="G6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.8550995073891627</v>
       </c>
       <c r="H6">
@@ -686,8 +781,24 @@
         <f t="shared" si="1"/>
         <v>6.4940998263908147</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>3.15270935960592E-7</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>5.1651268470108771E-9</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>3.7483317095243344E+16</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>11817400463.525028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D7">
         <f>AVERAGE(D2:D6)</f>
         <v>5.680000000000012E-5</v>
@@ -700,8 +811,16 @@
         <f>SUM(I2:I6)</f>
         <v>26.767167926664715</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <f>SUM(N2:N6)</f>
+        <v>1.5392805648864346E+17</v>
+      </c>
+      <c r="O7">
+        <f>SUM(O2:O6)</f>
+        <v>48680703416.562256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D8">
         <f>_xlfn.STDEV.S(D2:D6)</f>
         <v>1.4184498581197737E-5</v>
@@ -711,7 +830,53 @@
         <v>632.70025194302195</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <f>SQRT(1/N7)</f>
+        <v>2.5488313899846099E-9</v>
+      </c>
+      <c r="O9">
+        <f>O7/N7</f>
+        <v>3.1625620778336683E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <f t="array" ref="M18:Q18">TRANSPOSE(K20:K24)</f>
+        <v>5.4347826086956515E-9</v>
+      </c>
+      <c r="N18">
+        <v>4.8309178743961352E-9</v>
+      </c>
+      <c r="O18">
+        <v>4.926108374384236E-9</v>
+      </c>
+      <c r="P18">
+        <v>9.9009900990099001E-9</v>
+      </c>
+      <c r="Q18">
+        <v>4.926108374384236E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <f t="array" ref="M19:Q19">TRANSPOSE(L20:L24)</f>
+        <v>3.152173913043482E-7</v>
+      </c>
+      <c r="N19">
+        <v>3.1884057971014533E-7</v>
+      </c>
+      <c r="O19">
+        <v>3.15270935960592E-7</v>
+      </c>
+      <c r="P19">
+        <v>3.168316831683177E-7</v>
+      </c>
+      <c r="Q19">
+        <v>3.15270935960592E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -730,8 +895,34 @@
         <f>E24</f>
         <v>9.8550995073891627</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>5.4347826086956515E-9</v>
+      </c>
+      <c r="L20">
+        <v>3.152173913043482E-7</v>
+      </c>
+      <c r="M20">
+        <f>(M$19-$L20)/SQRT(M$18^2+$K20^2)</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>(N$19-$L20)/SQRT(N$18^2+$K20^2)</f>
+        <v>0.49827287912244322</v>
+      </c>
+      <c r="O20">
+        <f>(O$19-$L20)/SQRT(O$18^2+$K20^2)</f>
+        <v>7.2998048697663622E-3</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="N20:Q24" si="11">(P$19-$L20)/SQRT(P$18^2+$K20^2)</f>
+        <v>0.14292684073725026</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="11"/>
+        <v>7.2998048697663622E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -753,8 +944,34 @@
         <f>F24</f>
         <v>630.72636847290812</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>4.8309178743961352E-9</v>
+      </c>
+      <c r="L21">
+        <v>3.1884057971014533E-7</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:O24" si="12">(M$19-$L21)/SQRT(M$18^2+$K21^2)</f>
+        <v>-0.49827287912244322</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="12"/>
+        <v>-0.51737058429353389</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="11"/>
+        <v>-0.18235034792222007</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="11"/>
+        <v>-0.51737058429353389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -775,15 +992,41 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" ref="H22" si="7">($G21-G$22)/SQRT($G20^2+F$22^2)</f>
+        <f t="shared" ref="H22" si="13">($G21-G$22)/SQRT($G20^2+F$22^2)</f>
         <v>0.99985140054899757</v>
       </c>
       <c r="I22" s="2">
         <f>($G21-H$22)/SQRT($G20^2+G$22^2)</f>
         <v>57.90804057847631</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>4.926108374384236E-9</v>
+      </c>
+      <c r="L22">
+        <v>3.15270935960592E-7</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="12"/>
+        <v>-7.2998048697663622E-3</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="12"/>
+        <v>0.51737058429353389</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="11"/>
+        <v>0.14113222109759146</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E23">
         <f>H20</f>
         <v>9.6646628019323675</v>
@@ -793,19 +1036,45 @@
         <v>637.86774492753716</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" ref="G23:G24" si="8">($G22-F$22)/SQRT($G21^2+E$22^2)</f>
+        <f t="shared" ref="G23:G24" si="14">($G22-F$22)/SQRT($G21^2+E$22^2)</f>
         <v>-0.99985140054899757</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" ref="H23:H24" si="9">($G22-G$22)/SQRT($G21^2+F$22^2)</f>
+        <f t="shared" ref="H23:H24" si="15">($G22-G$22)/SQRT($G21^2+F$22^2)</f>
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" ref="I23:I24" si="10">($G22-H$22)/SQRT($G21^2+G$22^2)</f>
+        <f t="shared" ref="I23:I24" si="16">($G22-H$22)/SQRT($G21^2+G$22^2)</f>
         <v>-1.5855072676512032E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>9.9009900990099001E-9</v>
+      </c>
+      <c r="L23">
+        <v>3.168316831683177E-7</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="12"/>
+        <v>-0.14292684073725026</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="12"/>
+        <v>0.18235034792222007</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="12"/>
+        <v>-0.14113222109759146</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="11"/>
+        <v>-0.14113222109759146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E24">
         <f>G4</f>
         <v>9.8550995073891627</v>
@@ -815,16 +1084,42 @@
         <v>630.72636847290812</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-58.091959421523853</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-1.5855072676512032E-3</v>
       </c>
       <c r="I24" s="2" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="K24">
+        <v>4.926108374384236E-9</v>
+      </c>
+      <c r="L24">
+        <v>3.15270935960592E-7</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="12"/>
+        <v>-7.2998048697663622E-3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="12"/>
+        <v>0.51737058429353389</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="11"/>
+        <v>0.14113222109759146</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -835,19 +1130,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -855,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>42</v>
       </c>
@@ -864,16 +1160,16 @@
         <v>1.0002657341058161</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="B3">
         <f>A3*B$23/(2*B$24)+1</f>
-        <v>1.0002594071032966</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0002625706045563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>42.5</v>
       </c>
@@ -882,7 +1178,7 @@
         <v>1.0002688976070757</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>42</v>
       </c>
@@ -891,30 +1187,111 @@
         <v>1.0002657341058161</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>AVERAGE(B2:B5)</f>
-        <v>1.0002649432305011</v>
+        <v>1.0002657341058161</v>
       </c>
       <c r="D6">
         <f>_xlfn.STDEV.S(B2:B5)</f>
-        <v>3.9806517910835174E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.5829879623289891E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>AVERAGE(A2:A5)</f>
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.STDEV.S(A2:A5)</f>
+        <v>0.40824829046386302</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <f>B24/(B24-(A9*B12))</f>
+        <v>1.0002657258059839</v>
+      </c>
+      <c r="E10">
+        <f>(D10/(B24-(A9*B12)))*SQRT((B12*A10)^2+(A9*A12)^2)</f>
+        <v>2.1421563664275228E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="6">
+        <f>D10-1</f>
+        <v>2.6572580598394069E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.5488313899846099E-9</v>
+      </c>
+      <c r="B12">
+        <v>3.1625620778336683E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>2*D10*B12</f>
+        <v>6.3268049043815495E-7</v>
+      </c>
+      <c r="E14">
+        <f>D14*10^9</f>
+        <v>632.68049043815495</v>
+      </c>
+      <c r="F14">
+        <f>2*B24*SQRT((B24*A12)^2+(B12*A10)^2)/(B24-(A9*B12))^2</f>
+        <v>5.1003723010179125E-9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f>(D14-B29)/F14</f>
+        <v>-6.2644360644280486E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21">
         <v>1.0002926000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f>B21-1</f>
+        <v>2.9260000000008723E-4</v>
+      </c>
+      <c r="D21">
+        <f>C21*D27</f>
+        <v>2.8354696485631461E-4</v>
+      </c>
+      <c r="E21">
+        <f>D21*D28</f>
+        <v>2.7983909682340448E-4</v>
+      </c>
+      <c r="H21">
+        <f>(D22-D10)/E10</f>
+        <v>8.31926144687049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -922,8 +1299,12 @@
         <f>10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>D21+1</f>
+        <v>1.0002835469648563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -931,7 +1312,7 @@
         <v>6.3270025194302196E-7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -939,13 +1320,55 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25">
         <f>0.001</f>
         <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>24.2</v>
+      </c>
+      <c r="C26">
+        <f>B26+273.15</f>
+        <v>297.34999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="D27">
+        <f>B27/C26</f>
+        <v>0.96906003026736176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1013.25</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <f>C28/B28</f>
+        <v>0.98692326671601283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f>0.000000633</f>
+        <v>6.3300000000000002E-7</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1503,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,9 +1523,6 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="H1">
-        <v>24.2</v>
-      </c>
       <c r="I1" t="s">
         <v>25</v>
       </c>
